--- a/outputs/quarterly_risk_scores.xlsx
+++ b/outputs/quarterly_risk_scores.xlsx
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,7 +533,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -562,7 +562,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,10 +577,10 @@
         <v>42</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -620,7 +620,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -635,10 +635,10 @@
         <v>42</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F6" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -661,24 +661,24 @@
         <v>60</v>
       </c>
       <c r="D7" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E7" t="n">
         <v>65</v>
       </c>
       <c r="F7" t="n">
-        <v>54.95</v>
+        <v>63</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -707,7 +707,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -751,10 +751,10 @@
         <v>42</v>
       </c>
       <c r="E10" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F10" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -794,7 +794,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -823,7 +823,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -838,10 +838,10 @@
         <v>42</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F13" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -867,10 +867,10 @@
         <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -939,7 +939,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -968,7 +968,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -997,7 +997,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1026,7 +1026,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1041,10 +1041,10 @@
         <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F20" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1055,7 +1055,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1113,7 +1113,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1142,7 +1142,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1154,13 +1154,13 @@
         <v>60</v>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E24" t="n">
         <v>65</v>
       </c>
       <c r="F24" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1183,13 +1183,13 @@
         <v>60</v>
       </c>
       <c r="D25" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E25" t="n">
         <v>65</v>
       </c>
       <c r="F25" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1212,13 +1212,13 @@
         <v>60</v>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E26" t="n">
         <v>65</v>
       </c>
       <c r="F26" t="n">
-        <v>52.5</v>
+        <v>57.75</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1258,7 +1258,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1287,7 +1287,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1345,7 +1345,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1374,7 +1374,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1386,13 +1386,13 @@
         <v>60</v>
       </c>
       <c r="D32" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E32" t="n">
         <v>65</v>
       </c>
       <c r="F32" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1444,13 +1444,13 @@
         <v>60</v>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E34" t="n">
         <v>65</v>
       </c>
       <c r="F34" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1490,7 +1490,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1502,13 +1502,13 @@
         <v>60</v>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E36" t="n">
         <v>65</v>
       </c>
       <c r="F36" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1548,7 +1548,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1560,13 +1560,13 @@
         <v>60</v>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E38" t="n">
         <v>65</v>
       </c>
       <c r="F38" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1618,13 +1618,13 @@
         <v>60</v>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E40" t="n">
         <v>65</v>
       </c>
       <c r="F40" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1635,7 +1635,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1647,13 +1647,13 @@
         <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E41" t="n">
         <v>65</v>
       </c>
       <c r="F41" t="n">
-        <v>57.75</v>
+        <v>55.3</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1664,7 +1664,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1676,13 +1676,13 @@
         <v>60</v>
       </c>
       <c r="D42" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E42" t="n">
         <v>73</v>
       </c>
       <c r="F42" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1722,7 +1722,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1792,13 +1792,13 @@
         <v>60</v>
       </c>
       <c r="D46" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
         <v>73</v>
       </c>
       <c r="F46" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1824,10 +1824,10 @@
         <v>42</v>
       </c>
       <c r="E47" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F47" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1853,10 +1853,10 @@
         <v>42</v>
       </c>
       <c r="E48" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F48" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1882,10 +1882,10 @@
         <v>42</v>
       </c>
       <c r="E49" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F49" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1925,7 +1925,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1937,13 +1937,13 @@
         <v>60</v>
       </c>
       <c r="D51" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E51" t="n">
         <v>73</v>
       </c>
       <c r="F51" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1969,10 +1969,10 @@
         <v>42</v>
       </c>
       <c r="E52" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F52" t="n">
-        <v>56.95</v>
+        <v>59.45</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1998,10 +1998,10 @@
         <v>42</v>
       </c>
       <c r="E53" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F53" t="n">
-        <v>56.95</v>
+        <v>59.45</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2012,7 +2012,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2041,7 +2041,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2070,7 +2070,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2099,7 +2099,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2111,13 +2111,13 @@
         <v>60</v>
       </c>
       <c r="D57" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E57" t="n">
         <v>73</v>
       </c>
       <c r="F57" t="n">
-        <v>59.75</v>
+        <v>56.95</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2140,13 +2140,13 @@
         <v>60</v>
       </c>
       <c r="D58" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E58" t="n">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F58" t="n">
-        <v>59.75</v>
+        <v>59.45</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2169,13 +2169,13 @@
         <v>60</v>
       </c>
       <c r="D59" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E59" t="n">
         <v>73</v>
       </c>
       <c r="F59" t="n">
-        <v>59.75</v>
+        <v>56.95</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2215,7 +2215,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2244,7 +2244,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2259,10 +2259,10 @@
         <v>47</v>
       </c>
       <c r="E62" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F62" t="n">
-        <v>52.45</v>
+        <v>54.95</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2285,24 +2285,24 @@
         <v>60</v>
       </c>
       <c r="D63" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E63" t="n">
         <v>65</v>
       </c>
       <c r="F63" t="n">
-        <v>56.7</v>
+        <v>60.2</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2314,24 +2314,24 @@
         <v>60</v>
       </c>
       <c r="D64" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E64" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F64" t="n">
-        <v>54.95</v>
+        <v>60.2</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2343,24 +2343,24 @@
         <v>60</v>
       </c>
       <c r="D65" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E65" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F65" t="n">
-        <v>54.95</v>
+        <v>60.2</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2372,24 +2372,24 @@
         <v>60</v>
       </c>
       <c r="D66" t="n">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="E66" t="n">
         <v>65</v>
       </c>
       <c r="F66" t="n">
-        <v>56.7</v>
+        <v>60.2</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2401,24 +2401,24 @@
         <v>60</v>
       </c>
       <c r="D67" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E67" t="n">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="F67" t="n">
-        <v>60.2</v>
+        <v>52.45</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2430,24 +2430,24 @@
         <v>60</v>
       </c>
       <c r="D68" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E68" t="n">
         <v>65</v>
       </c>
       <c r="F68" t="n">
-        <v>60.2</v>
+        <v>56.7</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2476,7 +2476,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2505,7 +2505,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2534,7 +2534,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2546,13 +2546,13 @@
         <v>60</v>
       </c>
       <c r="D72" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E72" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F72" t="n">
-        <v>57.7</v>
+        <v>56.7</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2563,7 +2563,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2592,7 +2592,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2621,7 +2621,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2650,7 +2650,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2679,7 +2679,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2691,24 +2691,24 @@
         <v>60</v>
       </c>
       <c r="D77" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E77" t="n">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F77" t="n">
-        <v>60.2</v>
+        <v>54.95</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2737,7 +2737,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2752,21 +2752,21 @@
         <v>57</v>
       </c>
       <c r="E79" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F79" t="n">
-        <v>60.2</v>
+        <v>57.7</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2795,7 +2795,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2824,7 +2824,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2853,7 +2853,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2882,7 +2882,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2911,7 +2911,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2940,7 +2940,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2955,10 +2955,10 @@
         <v>50</v>
       </c>
       <c r="E86" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F86" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2998,7 +2998,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -3027,7 +3027,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -3042,10 +3042,10 @@
         <v>50</v>
       </c>
       <c r="E89" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F89" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -3071,10 +3071,10 @@
         <v>50</v>
       </c>
       <c r="E90" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F90" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3085,7 +3085,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -3143,7 +3143,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -3172,7 +3172,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -3201,7 +3201,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3230,7 +3230,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3259,7 +3259,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -3288,7 +3288,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -3317,7 +3317,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -3346,7 +3346,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3361,10 +3361,10 @@
         <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F100" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3375,7 +3375,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -3416,13 +3416,13 @@
         <v>60</v>
       </c>
       <c r="D102" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E102" t="n">
         <v>73</v>
       </c>
       <c r="F102" t="n">
-        <v>54.5</v>
+        <v>56.95</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -3445,13 +3445,13 @@
         <v>60</v>
       </c>
       <c r="D103" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E103" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F103" t="n">
-        <v>54.5</v>
+        <v>58.7</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3462,7 +3462,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -3491,7 +3491,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3506,10 +3506,10 @@
         <v>42</v>
       </c>
       <c r="E105" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F105" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -3535,10 +3535,10 @@
         <v>42</v>
       </c>
       <c r="E106" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F106" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -3561,13 +3561,13 @@
         <v>60</v>
       </c>
       <c r="D107" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E107" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F107" t="n">
-        <v>58.7</v>
+        <v>54.5</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -3590,13 +3590,13 @@
         <v>60</v>
       </c>
       <c r="D108" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E108" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F108" t="n">
-        <v>56.25</v>
+        <v>56.95</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3636,7 +3636,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3651,10 +3651,10 @@
         <v>42</v>
       </c>
       <c r="E110" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F110" t="n">
-        <v>58.7</v>
+        <v>56.95</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3665,7 +3665,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3677,13 +3677,13 @@
         <v>60</v>
       </c>
       <c r="D111" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E111" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F111" t="n">
-        <v>54.5</v>
+        <v>58.7</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3706,13 +3706,13 @@
         <v>60</v>
       </c>
       <c r="D112" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E112" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F112" t="n">
-        <v>58.7</v>
+        <v>54.5</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3723,7 +3723,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3738,10 +3738,10 @@
         <v>42</v>
       </c>
       <c r="E113" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F113" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3764,13 +3764,13 @@
         <v>60</v>
       </c>
       <c r="D114" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E114" t="n">
         <v>73</v>
       </c>
       <c r="F114" t="n">
-        <v>56.95</v>
+        <v>54.5</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3810,7 +3810,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3825,10 +3825,10 @@
         <v>42</v>
       </c>
       <c r="E116" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F116" t="n">
-        <v>56.2</v>
+        <v>58.7</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -3839,7 +3839,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3854,10 +3854,10 @@
         <v>42</v>
       </c>
       <c r="E117" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F117" t="n">
-        <v>58.7</v>
+        <v>56.95</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3880,13 +3880,13 @@
         <v>60</v>
       </c>
       <c r="D118" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E118" t="n">
         <v>80</v>
       </c>
       <c r="F118" t="n">
-        <v>58.7</v>
+        <v>56.25</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3926,7 +3926,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3941,10 +3941,10 @@
         <v>42</v>
       </c>
       <c r="E120" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F120" t="n">
-        <v>58.7</v>
+        <v>56.2</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3984,7 +3984,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4013,7 +4013,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -4028,10 +4028,10 @@
         <v>25</v>
       </c>
       <c r="E123" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F123" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -4071,7 +4071,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -4100,7 +4100,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4112,13 +4112,13 @@
         <v>60</v>
       </c>
       <c r="D126" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E126" t="n">
         <v>65</v>
       </c>
       <c r="F126" t="n">
-        <v>49</v>
+        <v>51.45</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4158,7 +4158,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4173,10 +4173,10 @@
         <v>25</v>
       </c>
       <c r="E128" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F128" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -4202,10 +4202,10 @@
         <v>25</v>
       </c>
       <c r="E129" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F129" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -4231,10 +4231,10 @@
         <v>25</v>
       </c>
       <c r="E130" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F130" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4245,7 +4245,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4274,7 +4274,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -4289,10 +4289,10 @@
         <v>25</v>
       </c>
       <c r="E132" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F132" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -4332,7 +4332,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4361,7 +4361,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4390,7 +4390,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -4402,13 +4402,13 @@
         <v>60</v>
       </c>
       <c r="D136" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E136" t="n">
         <v>65</v>
       </c>
       <c r="F136" t="n">
-        <v>51.45</v>
+        <v>49</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -4448,7 +4448,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -4463,10 +4463,10 @@
         <v>25</v>
       </c>
       <c r="E138" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F138" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -4506,7 +4506,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -4535,7 +4535,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -4564,7 +4564,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -4593,7 +4593,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -4608,10 +4608,10 @@
         <v>25</v>
       </c>
       <c r="E143" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F143" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -4637,10 +4637,10 @@
         <v>25</v>
       </c>
       <c r="E144" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F144" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4651,7 +4651,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -4666,10 +4666,10 @@
         <v>25</v>
       </c>
       <c r="E145" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F145" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -4695,10 +4695,10 @@
         <v>25</v>
       </c>
       <c r="E146" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F146" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4709,7 +4709,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -4724,10 +4724,10 @@
         <v>25</v>
       </c>
       <c r="E147" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F147" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -4753,10 +4753,10 @@
         <v>25</v>
       </c>
       <c r="E148" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F148" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -4796,7 +4796,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -4825,7 +4825,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -4854,7 +4854,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -4869,10 +4869,10 @@
         <v>25</v>
       </c>
       <c r="E152" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F152" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -4912,7 +4912,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -4941,7 +4941,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -4970,7 +4970,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4999,7 +4999,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -5014,10 +5014,10 @@
         <v>25</v>
       </c>
       <c r="E157" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F157" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5028,7 +5028,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -5057,7 +5057,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -5086,7 +5086,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -5115,7 +5115,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -5144,7 +5144,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -5159,10 +5159,10 @@
         <v>57</v>
       </c>
       <c r="E162" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F162" t="n">
-        <v>58.45</v>
+        <v>57.95</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5173,7 +5173,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -5188,21 +5188,21 @@
         <v>57</v>
       </c>
       <c r="E163" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F163" t="n">
-        <v>57.95</v>
+        <v>60.45</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -5214,24 +5214,24 @@
         <v>60</v>
       </c>
       <c r="D164" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E164" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F164" t="n">
-        <v>55.5</v>
+        <v>60.45</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -5243,13 +5243,13 @@
         <v>60</v>
       </c>
       <c r="D165" t="n">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E165" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F165" t="n">
-        <v>57.95</v>
+        <v>56.95</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -5275,10 +5275,10 @@
         <v>57</v>
       </c>
       <c r="E166" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F166" t="n">
-        <v>57.95</v>
+        <v>59.7</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5289,7 +5289,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -5301,13 +5301,13 @@
         <v>60</v>
       </c>
       <c r="D167" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E167" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F167" t="n">
-        <v>58</v>
+        <v>58.45</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5318,7 +5318,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -5330,13 +5330,13 @@
         <v>60</v>
       </c>
       <c r="D168" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E168" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F168" t="n">
-        <v>58</v>
+        <v>57.95</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -5391,21 +5391,21 @@
         <v>57</v>
       </c>
       <c r="E170" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F170" t="n">
-        <v>60.45</v>
+        <v>57.95</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -5417,13 +5417,13 @@
         <v>60</v>
       </c>
       <c r="D171" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E171" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F171" t="n">
-        <v>58</v>
+        <v>54.45</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -5446,13 +5446,13 @@
         <v>60</v>
       </c>
       <c r="D172" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E172" t="n">
         <v>56</v>
       </c>
       <c r="F172" t="n">
-        <v>55.5</v>
+        <v>57.95</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5463,7 +5463,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5475,24 +5475,24 @@
         <v>60</v>
       </c>
       <c r="D173" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E173" t="n">
         <v>66</v>
       </c>
       <c r="F173" t="n">
-        <v>60.45</v>
+        <v>58</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5504,13 +5504,13 @@
         <v>60</v>
       </c>
       <c r="D174" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E174" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F174" t="n">
-        <v>57.95</v>
+        <v>58</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5521,7 +5521,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -5550,7 +5550,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -5579,7 +5579,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -5591,13 +5591,13 @@
         <v>60</v>
       </c>
       <c r="D177" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E177" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F177" t="n">
-        <v>56.95</v>
+        <v>55.5</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -5620,13 +5620,13 @@
         <v>60</v>
       </c>
       <c r="D178" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E178" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F178" t="n">
-        <v>54.45</v>
+        <v>58</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -5649,24 +5649,24 @@
         <v>60</v>
       </c>
       <c r="D179" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E179" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F179" t="n">
-        <v>60.45</v>
+        <v>55.5</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -5678,24 +5678,24 @@
         <v>60</v>
       </c>
       <c r="D180" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E180" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F180" t="n">
-        <v>59.75</v>
+        <v>60.45</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -5707,13 +5707,13 @@
         <v>60</v>
       </c>
       <c r="D181" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E181" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F181" t="n">
-        <v>59.7</v>
+        <v>59.75</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -5739,10 +5739,10 @@
         <v>50</v>
       </c>
       <c r="E182" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F182" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -5768,10 +5768,10 @@
         <v>50</v>
       </c>
       <c r="E183" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F183" t="n">
-        <v>59.75</v>
+        <v>57.25</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -5797,10 +5797,10 @@
         <v>50</v>
       </c>
       <c r="E184" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F184" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5826,10 +5826,10 @@
         <v>50</v>
       </c>
       <c r="E185" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F185" t="n">
-        <v>55.25</v>
+        <v>59.75</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5855,21 +5855,21 @@
         <v>50</v>
       </c>
       <c r="E186" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F186" t="n">
-        <v>57.25</v>
+        <v>61.5</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>MEDIUM</t>
+          <t>HIGH</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -5884,10 +5884,10 @@
         <v>50</v>
       </c>
       <c r="E187" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F187" t="n">
-        <v>57.25</v>
+        <v>57.75</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -5927,7 +5927,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -5956,7 +5956,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -5971,10 +5971,10 @@
         <v>50</v>
       </c>
       <c r="E190" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F190" t="n">
-        <v>57.25</v>
+        <v>55.25</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -6000,10 +6000,10 @@
         <v>50</v>
       </c>
       <c r="E191" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F191" t="n">
-        <v>57.25</v>
+        <v>59.75</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -6029,10 +6029,10 @@
         <v>50</v>
       </c>
       <c r="E192" t="n">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="F192" t="n">
-        <v>55.25</v>
+        <v>59.75</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6043,7 +6043,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -6058,10 +6058,10 @@
         <v>50</v>
       </c>
       <c r="E193" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F193" t="n">
-        <v>57.75</v>
+        <v>57.25</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -6087,10 +6087,10 @@
         <v>50</v>
       </c>
       <c r="E194" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F194" t="n">
-        <v>55.25</v>
+        <v>57.25</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -6101,7 +6101,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -6130,7 +6130,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -6159,7 +6159,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -6174,10 +6174,10 @@
         <v>50</v>
       </c>
       <c r="E197" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F197" t="n">
-        <v>59.75</v>
+        <v>55.25</v>
       </c>
       <c r="G197" t="inlineStr">
         <is>
@@ -6188,7 +6188,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -6203,10 +6203,10 @@
         <v>50</v>
       </c>
       <c r="E198" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F198" t="n">
-        <v>59.75</v>
+        <v>57.25</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -6232,10 +6232,10 @@
         <v>50</v>
       </c>
       <c r="E199" t="n">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F199" t="n">
-        <v>59.75</v>
+        <v>55.25</v>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -6261,21 +6261,21 @@
         <v>50</v>
       </c>
       <c r="E200" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="F200" t="n">
-        <v>61.5</v>
+        <v>59.75</v>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>HIGH</t>
+          <t>MEDIUM</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -6652,16 +6652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.45</v>
+        <v>55.85</v>
       </c>
       <c r="C12" t="n">
         <v>54.95</v>
       </c>
       <c r="D12" t="n">
-        <v>57.45</v>
+        <v>63</v>
       </c>
       <c r="E12" t="n">
-        <v>1.03</v>
+        <v>1.97</v>
       </c>
       <c r="F12" t="n">
         <v>20</v>
@@ -6670,7 +6670,7 @@
         <v>60</v>
       </c>
       <c r="H12" t="n">
-        <v>42</v>
+        <v>43.15</v>
       </c>
       <c r="I12" t="n">
         <v>67</v>
@@ -6857,10 +6857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -6955,20 +6955,20 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2018-03-31</t>
+          <t>12/31/2018</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.45</v>
+        <v>54.95</v>
       </c>
       <c r="C2" t="n">
         <v>52.5</v>
       </c>
       <c r="D2" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="E2" t="n">
-        <v>58.45</v>
+        <v>57.95</v>
       </c>
       <c r="F2" t="n">
         <v>46.75</v>
@@ -6977,10 +6977,10 @@
         <v>55.25</v>
       </c>
       <c r="H2" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="I2" t="n">
-        <v>54.5</v>
+        <v>56.95</v>
       </c>
       <c r="J2" t="n">
         <v>54.95</v>
@@ -6992,11 +6992,11 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2018-06-30</t>
+          <t>12/31/2019</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56.7</v>
+        <v>60.2</v>
       </c>
       <c r="C3" t="n">
         <v>52.5</v>
@@ -7005,59 +7005,59 @@
         <v>59.45</v>
       </c>
       <c r="E3" t="n">
-        <v>57.95</v>
+        <v>60.45</v>
       </c>
       <c r="F3" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G3" t="n">
         <v>55.25</v>
       </c>
       <c r="H3" t="n">
-        <v>59.75</v>
+        <v>57.25</v>
       </c>
       <c r="I3" t="n">
-        <v>54.5</v>
+        <v>58.7</v>
       </c>
       <c r="J3" t="n">
         <v>54.95</v>
       </c>
       <c r="K3" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2018-09-30</t>
+          <t>12/31/2020</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54.95</v>
+        <v>60.2</v>
       </c>
       <c r="C4" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="D4" t="n">
         <v>56.95</v>
       </c>
       <c r="E4" t="n">
-        <v>55.5</v>
+        <v>60.45</v>
       </c>
       <c r="F4" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G4" t="n">
         <v>55.25</v>
       </c>
       <c r="H4" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="I4" t="n">
         <v>56.95</v>
       </c>
       <c r="J4" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="K4" t="n">
         <v>49</v>
@@ -7066,32 +7066,32 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2018-12-31</t>
+          <t>12/31/2021</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.95</v>
+        <v>60.2</v>
       </c>
       <c r="C5" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="D5" t="n">
         <v>59.75</v>
       </c>
       <c r="E5" t="n">
-        <v>57.95</v>
+        <v>56.95</v>
       </c>
       <c r="F5" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G5" t="n">
         <v>55.25</v>
       </c>
       <c r="H5" t="n">
-        <v>55.25</v>
+        <v>59.75</v>
       </c>
       <c r="I5" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="J5" t="n">
         <v>54.95</v>
@@ -7103,72 +7103,72 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2019-03-31</t>
+          <t>12/31/2022</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>56.7</v>
+        <v>60.2</v>
       </c>
       <c r="C6" t="n">
-        <v>52.5</v>
+        <v>57.75</v>
       </c>
       <c r="D6" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="E6" t="n">
-        <v>57.95</v>
+        <v>59.7</v>
       </c>
       <c r="F6" t="n">
-        <v>46.75</v>
+        <v>48.5</v>
       </c>
       <c r="G6" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="H6" t="n">
-        <v>57.25</v>
+        <v>61.5</v>
       </c>
       <c r="I6" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="K6" t="n">
-        <v>49</v>
+        <v>51.45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2019-06-30</t>
+          <t>3/31/2018</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.2</v>
+        <v>52.45</v>
       </c>
       <c r="C7" t="n">
         <v>52.5</v>
       </c>
       <c r="D7" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="E7" t="n">
-        <v>58</v>
+        <v>58.45</v>
       </c>
       <c r="F7" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G7" t="n">
         <v>55.25</v>
       </c>
       <c r="H7" t="n">
-        <v>57.25</v>
+        <v>57.75</v>
       </c>
       <c r="I7" t="n">
-        <v>58.7</v>
+        <v>54.5</v>
       </c>
       <c r="J7" t="n">
-        <v>54.95</v>
+        <v>63</v>
       </c>
       <c r="K7" t="n">
         <v>49</v>
@@ -7177,23 +7177,23 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2019-09-30</t>
+          <t>3/31/2019</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.2</v>
+        <v>56.7</v>
       </c>
       <c r="C8" t="n">
         <v>52.5</v>
       </c>
       <c r="D8" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="E8" t="n">
-        <v>58</v>
+        <v>57.95</v>
       </c>
       <c r="F8" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G8" t="n">
         <v>55.25</v>
@@ -7202,19 +7202,19 @@
         <v>57.25</v>
       </c>
       <c r="I8" t="n">
-        <v>56.25</v>
+        <v>56.95</v>
       </c>
       <c r="J8" t="n">
         <v>54.95</v>
       </c>
       <c r="K8" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2019-12-31</t>
+          <t>3/31/2020</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7224,7 +7224,7 @@
         <v>52.5</v>
       </c>
       <c r="D9" t="n">
-        <v>59.45</v>
+        <v>56.95</v>
       </c>
       <c r="E9" t="n">
         <v>60.45</v>
@@ -7233,7 +7233,7 @@
         <v>48.5</v>
       </c>
       <c r="G9" t="n">
-        <v>55.25</v>
+        <v>57.75</v>
       </c>
       <c r="H9" t="n">
         <v>57.25</v>
@@ -7245,13 +7245,13 @@
         <v>54.95</v>
       </c>
       <c r="K9" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2020-03-31</t>
+          <t>3/31/2021</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7264,31 +7264,31 @@
         <v>56.95</v>
       </c>
       <c r="E10" t="n">
-        <v>60.45</v>
+        <v>57.95</v>
       </c>
       <c r="F10" t="n">
         <v>48.5</v>
       </c>
       <c r="G10" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="H10" t="n">
-        <v>57.25</v>
+        <v>55.25</v>
       </c>
       <c r="I10" t="n">
-        <v>58.7</v>
+        <v>56.95</v>
       </c>
       <c r="J10" t="n">
-        <v>54.95</v>
+        <v>57.45</v>
       </c>
       <c r="K10" t="n">
-        <v>46.5</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2020-06-30</t>
+          <t>3/31/2022</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7298,10 +7298,10 @@
         <v>55.3</v>
       </c>
       <c r="D11" t="n">
-        <v>56.95</v>
+        <v>59.75</v>
       </c>
       <c r="E11" t="n">
-        <v>58</v>
+        <v>54.45</v>
       </c>
       <c r="F11" t="n">
         <v>48.5</v>
@@ -7310,10 +7310,10 @@
         <v>55.25</v>
       </c>
       <c r="H11" t="n">
-        <v>57.25</v>
+        <v>59.75</v>
       </c>
       <c r="I11" t="n">
-        <v>54.5</v>
+        <v>58.7</v>
       </c>
       <c r="J11" t="n">
         <v>54.95</v>
@@ -7325,44 +7325,44 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>6/30/2018</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57.7</v>
+        <v>56.7</v>
       </c>
       <c r="C12" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="D12" t="n">
-        <v>56.95</v>
+        <v>59.45</v>
       </c>
       <c r="E12" t="n">
-        <v>55.5</v>
+        <v>57.95</v>
       </c>
       <c r="F12" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G12" t="n">
         <v>55.25</v>
       </c>
       <c r="H12" t="n">
-        <v>55.25</v>
+        <v>59.75</v>
       </c>
       <c r="I12" t="n">
-        <v>58.7</v>
+        <v>54.5</v>
       </c>
       <c r="J12" t="n">
         <v>54.95</v>
       </c>
       <c r="K12" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>6/30/2019</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7372,10 +7372,10 @@
         <v>52.5</v>
       </c>
       <c r="D13" t="n">
-        <v>56.95</v>
+        <v>59.45</v>
       </c>
       <c r="E13" t="n">
-        <v>60.45</v>
+        <v>58</v>
       </c>
       <c r="F13" t="n">
         <v>48.5</v>
@@ -7384,13 +7384,13 @@
         <v>55.25</v>
       </c>
       <c r="H13" t="n">
-        <v>57.75</v>
+        <v>57.25</v>
       </c>
       <c r="I13" t="n">
-        <v>56.95</v>
+        <v>58.7</v>
       </c>
       <c r="J13" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="K13" t="n">
         <v>49</v>
@@ -7399,20 +7399,20 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>6/30/2020</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>60.2</v>
       </c>
       <c r="C14" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="D14" t="n">
         <v>56.95</v>
       </c>
       <c r="E14" t="n">
-        <v>57.95</v>
+        <v>58</v>
       </c>
       <c r="F14" t="n">
         <v>48.5</v>
@@ -7421,13 +7421,13 @@
         <v>55.25</v>
       </c>
       <c r="H14" t="n">
-        <v>55.25</v>
+        <v>57.25</v>
       </c>
       <c r="I14" t="n">
-        <v>56.95</v>
+        <v>54.5</v>
       </c>
       <c r="J14" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="K14" t="n">
         <v>49</v>
@@ -7436,7 +7436,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>6/30/2021</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7473,14 +7473,14 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2021-09-30</t>
+          <t>6/30/2022</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>60.2</v>
       </c>
       <c r="C16" t="n">
-        <v>52.5</v>
+        <v>55.3</v>
       </c>
       <c r="D16" t="n">
         <v>59.75</v>
@@ -7498,44 +7498,44 @@
         <v>59.75</v>
       </c>
       <c r="I16" t="n">
-        <v>56.2</v>
+        <v>58.7</v>
       </c>
       <c r="J16" t="n">
         <v>54.95</v>
       </c>
       <c r="K16" t="n">
-        <v>51.45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2021-12-31</t>
+          <t>9/30/2018</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60.2</v>
+        <v>54.95</v>
       </c>
       <c r="C17" t="n">
         <v>55.3</v>
       </c>
       <c r="D17" t="n">
-        <v>59.75</v>
+        <v>56.95</v>
       </c>
       <c r="E17" t="n">
-        <v>56.95</v>
+        <v>55.5</v>
       </c>
       <c r="F17" t="n">
-        <v>48.5</v>
+        <v>46.75</v>
       </c>
       <c r="G17" t="n">
         <v>55.25</v>
       </c>
       <c r="H17" t="n">
-        <v>59.75</v>
+        <v>55.25</v>
       </c>
       <c r="I17" t="n">
-        <v>58.7</v>
+        <v>56.95</v>
       </c>
       <c r="J17" t="n">
         <v>54.95</v>
@@ -7547,20 +7547,20 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>9/30/2019</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>60.2</v>
       </c>
       <c r="C18" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="D18" t="n">
-        <v>59.75</v>
+        <v>59.45</v>
       </c>
       <c r="E18" t="n">
-        <v>54.45</v>
+        <v>58</v>
       </c>
       <c r="F18" t="n">
         <v>48.5</v>
@@ -7569,35 +7569,35 @@
         <v>55.25</v>
       </c>
       <c r="H18" t="n">
-        <v>59.75</v>
+        <v>57.25</v>
       </c>
       <c r="I18" t="n">
-        <v>58.7</v>
+        <v>56.25</v>
       </c>
       <c r="J18" t="n">
         <v>54.95</v>
       </c>
       <c r="K18" t="n">
-        <v>49</v>
+        <v>46.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>9/30/2020</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60.2</v>
+        <v>57.7</v>
       </c>
       <c r="C19" t="n">
         <v>55.3</v>
       </c>
       <c r="D19" t="n">
-        <v>59.75</v>
+        <v>56.95</v>
       </c>
       <c r="E19" t="n">
-        <v>60.45</v>
+        <v>55.5</v>
       </c>
       <c r="F19" t="n">
         <v>48.5</v>
@@ -7606,7 +7606,7 @@
         <v>55.25</v>
       </c>
       <c r="H19" t="n">
-        <v>59.75</v>
+        <v>55.25</v>
       </c>
       <c r="I19" t="n">
         <v>58.7</v>
@@ -7621,35 +7621,35 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2022-09-30</t>
+          <t>9/30/2021</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>60.2</v>
       </c>
       <c r="C20" t="n">
-        <v>55.3</v>
+        <v>52.5</v>
       </c>
       <c r="D20" t="n">
         <v>59.75</v>
       </c>
       <c r="E20" t="n">
-        <v>59.75</v>
+        <v>60.45</v>
       </c>
       <c r="F20" t="n">
         <v>48.5</v>
       </c>
       <c r="G20" t="n">
-        <v>57.75</v>
+        <v>55.25</v>
       </c>
       <c r="H20" t="n">
-        <v>61.5</v>
+        <v>59.75</v>
       </c>
       <c r="I20" t="n">
-        <v>58.7</v>
+        <v>56.2</v>
       </c>
       <c r="J20" t="n">
-        <v>57.45</v>
+        <v>54.95</v>
       </c>
       <c r="K20" t="n">
         <v>51.45</v>
@@ -7658,20 +7658,20 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2022-12-31</t>
+          <t>9/30/2022</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>60.2</v>
       </c>
       <c r="C21" t="n">
-        <v>57.75</v>
+        <v>55.3</v>
       </c>
       <c r="D21" t="n">
         <v>59.75</v>
       </c>
       <c r="E21" t="n">
-        <v>59.7</v>
+        <v>59.75</v>
       </c>
       <c r="F21" t="n">
         <v>48.5</v>
